--- a/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4748E165-AA54-4F0B-A50E-E45754B1F661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="480" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="2250" yWindow="480" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TribeDatas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,34 +37,6 @@
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>야수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>언데드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴먼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -139,14 +110,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>드래곤</t>
+    <t>Machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6A44A-5798-4893-82F4-85C239DAC380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -585,52 +584,52 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -638,13 +637,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -652,52 +651,52 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -798,7 +797,7 @@
       <c r="H36" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+  <sortState ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B820C0-6199-47E3-A47F-395F29AE7565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="480" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TribeDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="TribeExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,7 +792,7 @@
       <c r="H36" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B820C0-6199-47E3-A47F-395F29AE7565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C01D7-5FD8-4D16-A3EC-84D14188B9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TribeExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>Human</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_MACHINE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_UNDEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_ELF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_ELEMENTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_DEVIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_BEAST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +578,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
@@ -608,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -624,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -638,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -652,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -665,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -678,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C01D7-5FD8-4D16-A3EC-84D14188B9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="795" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TribeExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,10 +35,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력이 10 증가합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -160,11 +155,36 @@
     <t>Images/Tribe/Logo_BEAST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>아군에게 최대체력의 [25%/45%] (2/3) 만큼 쉴드를 부여합니다.</t>
+  </si>
+  <si>
+    <t>모든 스탯이  [자신 25%/아군 25%] (1/4) 만큼 증가합니다. //필드에 드래곤 2~3명 효과X</t>
+  </si>
+  <si>
+    <t>적군의 [방어력, 마법저항력]을 [6,6/16,16/15%,15%] (1,2,3) 만큼 감소시킵니다.</t>
+  </si>
+  <si>
+    <t>야수의 공격속도가 [30,70] (1,3) 만큼 빨라집니다.</t>
+  </si>
+  <si>
+    <t>엘프의 마나소모량이 [1,2] (2,4) 감소합니다.</t>
+  </si>
+  <si>
+    <t>평타 시 마나가  [정령 1개/아군 1개] (2/4) 더 찹니다.</t>
+  </si>
+  <si>
+    <t>아군의 [공격력, 마법공격력] 이 [5,10,25] (2,3,5) 만큼 증가합니다.</t>
+  </si>
+  <si>
+    <t>적 스킬을 [1,3] (1,3) 무효합니다. //침묵. 적 사용마나는 깎임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,17 +594,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
@@ -603,52 +623,52 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -656,13 +676,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -670,52 +690,52 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -816,7 +836,7 @@
       <c r="H36" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+  <sortState ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Tribe/Logo_HUMAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Machine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,30 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Tribe/Logo_MACHINE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Tribe/Logo_UNDEAD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Tribe/Logo_ELF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Tribe/Logo_ELEMENTAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Tribe/Logo_DEVIL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Tribe/Logo_BEAST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아군에게 최대체력의 [25%/45%] (2/3) 만큼 쉴드를 부여합니다.</t>
   </si>
   <si>
@@ -178,6 +150,38 @@
   </si>
   <si>
     <t>적 스킬을 [1,3] (1,3) 무효합니다. //침묵. 적 사용마나는 깎임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/MACHINE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/BEAST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/DEVIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/UNDEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/ELF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/ELEMENTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/HUMAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/DRAGON</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +602,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -630,13 +634,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
@@ -646,13 +650,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -662,13 +666,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -676,13 +680,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -690,52 +694,52 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Synergy/TribeDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Synergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029058E-B17F-4673-8CB6-59482C6BD556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="795" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TribeExcelDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,11 +185,35 @@
     <t>Images/Tribe/DRAGON</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>모든 스탯이  [자신 25%/아군 25%] (1/4) 만큼 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군의 [방어력, 마법저항력]을 [6,6/16,16/30,30] (1,2,3) 만큼 감소시킵니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프의 회피율이 [20,40] (2,4) 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군의 최대체력이 [250/450] (2/3) 만큼 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군의 [공격력, 마법공격력]을 [6,6/16,16/30,30] (1,2,3) 만큼 감소시킵니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군의 적중률이 [20, 40] (2/4) 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -653,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
@@ -669,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
@@ -697,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
@@ -710,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -723,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
@@ -753,38 +778,54 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -840,7 +881,7 @@
       <c r="H36" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
